--- a/data/environmental_facilities/data.xlsx
+++ b/data/environmental_facilities/data.xlsx
@@ -445,10 +445,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="str">
-        <v>34.2623891</v>
+        <v>34.26437132238409</v>
       </c>
       <c r="C2" t="str">
-        <v>134.0148103</v>
+        <v>134.00840715371498</v>
       </c>
       <c r="D2" t="str">
         <v>高松市西部クリーンセンター</v>
